--- a/Resultados/Resultados sumarizados.xlsx
+++ b/Resultados/Resultados sumarizados.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0c8c9c7057696f0/Trabalho/Projetos/POST DOC/Unesp 2023 - Edital 04-2022/Análises/Water Quality Curves/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0c8c9c7057696f0/repos/Urban_water_functions/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{71C2569C-3F1B-4E17-ACED-73226EA5BB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D09BB72-C11E-4CD2-838C-E5DDF54C5A21}"/>
+  <xr:revisionPtr revIDLastSave="491" documentId="13_ncr:1_{71C2569C-3F1B-4E17-ACED-73226EA5BB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8DE57EB-1DC8-4872-A340-A9B8A52D7443}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{BBB96E13-39A7-4DE5-BB40-47102DC97FCB}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{BBB96E13-39A7-4DE5-BB40-47102DC97FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Porcentagem de zeros" sheetId="2" r:id="rId2"/>
+    <sheet name="Análise de resíduos" sheetId="3" r:id="rId3"/>
+    <sheet name="Impermeb.VS Saneamento" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="113">
   <si>
     <t>chlorophyll a</t>
   </si>
@@ -313,6 +315,69 @@
   </si>
   <si>
     <t>Linear Quadratic</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Pastagem</t>
+  </si>
+  <si>
+    <t>Mosaico</t>
+  </si>
+  <si>
+    <t>R²: 0.057</t>
+  </si>
+  <si>
+    <t>R²: 0.051</t>
+  </si>
+  <si>
+    <t>R²: 0.045</t>
+  </si>
+  <si>
+    <t>R²: 0.102</t>
+  </si>
+  <si>
+    <t>Outras variáveis não tiveram efeitos significativos</t>
+  </si>
+  <si>
+    <t>R²</t>
+  </si>
+  <si>
+    <t>Impermeabilzação VS Saneamento</t>
+  </si>
+  <si>
+    <t>Impermeabilzação = Saneamento</t>
+  </si>
+  <si>
+    <t>AICc</t>
+  </si>
+  <si>
+    <t>dAICc</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>* O modelo para o c inclui diferentes variancas para cada variável e valores para impermeabilização e saneamento. Isso foi necessário para o modelo ter um bom ajuste.</t>
+  </si>
+  <si>
+    <t>* Ambos os modelos são modelos mistos com a idade da variável como fator aleatório.</t>
   </si>
 </sst>
 </file>
@@ -322,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +412,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -375,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -491,12 +564,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -548,6 +701,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +755,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,26 +1056,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7DDEB2-B574-4F65-9195-1F4CA1E606F3}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.40625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.86328125" style="3"/>
+    <col min="3" max="3" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="26" t="s">
@@ -915,7 +1091,7 @@
       </c>
       <c r="I1" s="27"/>
     </row>
-    <row r="2" spans="1:10" ht="13.75" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>68</v>
@@ -945,7 +1121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -983,7 +1159,7 @@
       </c>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1186,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1213,7 @@
       </c>
       <c r="J6" s="28"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1228,7 @@
       </c>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1243,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1258,7 @@
       </c>
       <c r="J9" s="28"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1273,7 @@
       </c>
       <c r="J10" s="28"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1303,7 @@
       </c>
       <c r="J11" s="28"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1321,7 @@
       </c>
       <c r="J12" s="28"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1336,7 @@
       </c>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1357,7 @@
       </c>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1202,7 +1378,7 @@
       </c>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1399,7 @@
       </c>
       <c r="J16" s="28"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1417,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1432,7 @@
       </c>
       <c r="J18" s="28"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1267,7 +1443,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1281,7 +1457,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1485,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1323,7 +1499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.65" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1351,7 +1527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1362,7 +1538,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1552,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +1566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1410,7 +1586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1444,7 +1620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -1458,7 +1634,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1655,7 @@
       <c r="H33" s="23"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1493,7 +1669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1507,7 +1683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>24</v>
       </c>
@@ -1528,7 +1704,7 @@
       <c r="H36" s="23"/>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,7 +1724,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1559,7 +1735,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
@@ -1573,7 +1749,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
@@ -1593,7 +1769,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>34</v>
       </c>
@@ -1614,7 +1790,7 @@
       <c r="H41" s="23"/>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
@@ -1634,7 +1810,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>36</v>
       </c>
@@ -1654,7 +1830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>37</v>
       </c>
@@ -1668,7 +1844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
@@ -1682,7 +1858,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>39</v>
       </c>
@@ -1703,7 +1879,7 @@
       <c r="H46" s="23"/>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>40</v>
       </c>
@@ -1728,7 +1904,7 @@
       <c r="H47" s="23"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
@@ -1742,7 +1918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +1944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>43</v>
       </c>
@@ -1789,7 +1965,7 @@
       <c r="H50" s="23"/>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>44</v>
       </c>
@@ -1814,7 +1990,7 @@
       <c r="H51" s="23"/>
       <c r="I51" s="24"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>45</v>
       </c>
@@ -1828,7 +2004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>46</v>
       </c>
@@ -1848,7 +2024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>47</v>
       </c>
@@ -1862,7 +2038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1873,7 +2049,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>86</v>
       </c>
@@ -1890,7 +2066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>87</v>
       </c>
@@ -1934,17 +2110,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3138AE87-2898-444F-AFF9-3230A5D76C5E}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.2265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -1952,7 +2128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1963,7 +2139,7 @@
         <v>0.30769230769230799</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1974,7 +2150,7 @@
         <v>0.46153846153846201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1985,7 +2161,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1996,7 +2172,7 @@
         <v>0.67307692307692302</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2007,7 +2183,7 @@
         <v>0.269230769230769</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2018,7 +2194,7 @@
         <v>0.21153846153846201</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2029,7 +2205,7 @@
         <v>0.21153846153846201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2040,7 +2216,7 @@
         <v>0.30769230769230799</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2051,7 +2227,7 @@
         <v>0.480769230769231</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2062,7 +2238,7 @@
         <v>0.90384615384615397</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2073,7 +2249,7 @@
         <v>0.63461538461538503</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2260,7 @@
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2271,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2282,7 @@
         <v>0.98076923076923095</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2117,7 +2293,7 @@
         <v>0.71153846153846201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2128,7 +2304,7 @@
         <v>0.67307692307692302</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2139,7 +2315,7 @@
         <v>0.98076923076923095</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2150,7 +2326,7 @@
         <v>0.61538461538461497</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2161,7 +2337,7 @@
         <v>0.21153846153846201</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2172,7 +2348,7 @@
         <v>0.76923076923076905</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2183,7 +2359,7 @@
         <v>0.90384615384615397</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2194,7 +2370,7 @@
         <v>0.98076923076923095</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2205,7 +2381,7 @@
         <v>0.82692307692307698</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2216,7 +2392,7 @@
         <v>0.90384615384615397</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2227,7 +2403,7 @@
         <v>0.90384615384615397</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2238,7 +2414,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -2249,7 +2425,7 @@
         <v>0.98076923076923095</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2260,7 +2436,7 @@
         <v>0.98076923076923095</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2271,7 +2447,7 @@
         <v>0.86538461538461497</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2282,7 +2458,7 @@
         <v>0.53846153846153799</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2293,7 +2469,7 @@
         <v>0.98076923076923095</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2304,7 +2480,7 @@
         <v>0.98076923076923095</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2315,7 +2491,7 @@
         <v>0.42307692307692302</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2326,7 +2502,7 @@
         <v>0.21153846153846201</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2345,4 +2521,376 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5451C7F0-8FBD-4D76-B287-CB7E9D4E708D}">
+  <dimension ref="B2:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="C4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <v>4.9201244841388601</v>
+      </c>
+      <c r="E5" s="37">
+        <v>3.12117779558388E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1.3213641055412599</v>
+      </c>
+      <c r="E6" s="34">
+        <v>0.25592726778522201</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36">
+        <v>4.3537419965069404</v>
+      </c>
+      <c r="E12" s="37">
+        <v>4.21535983751204E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0.78988913715180697</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.37847600231053402</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36">
+        <v>4.57507555092569</v>
+      </c>
+      <c r="E19" s="37">
+        <v>3.7449566207384599E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="30">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1.2457872501235401</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.26980231177730302</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="36">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
+        <v>6.3244613888921899</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1.6141358604943999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="30">
+        <v>1</v>
+      </c>
+      <c r="D27" s="30">
+        <v>4.95749539477809E-2</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0.824966544167403</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E1E2D9-A71D-44A4-95EA-35225F6DF475}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>-103.3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>-103.1</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>303.5</v>
+      </c>
+      <c r="C7">
+        <v>101.1</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>202.3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>